--- a/biology/Origine et évolution du vivant/Danilo_Mainardi/Danilo_Mainardi.xlsx
+++ b/biology/Origine et évolution du vivant/Danilo_Mainardi/Danilo_Mainardi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Danilo Mainardi, né à Milan (Italie) le 25 novembre 1933 et mort à Venise le 8 mars 2017[1],[2], est un biologiste, zoologiste et éthologue italien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Danilo Mainardi, né à Milan (Italie) le 25 novembre 1933 et mort à Venise le 8 mars 2017 est un biologiste, zoologiste et éthologue italien.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'Enzo Mainardi (it), poète et peintre futuriste, et de Maria Soldi, Danilo Mainardi est né à Milan le 25 novembre 1933. Encore enfant, il déménage avec sa famille à Casalmorano, et se passionne pour les dessins d'animaux.
-Diplômé à Parme en biologie en 1956, il devient professeur d'écologie comportementale à l'université « Ca' Foscari » de Venise[3], ainsi que président honoris causa de la ligue italienne de protection des oiseaux (Lega Italiana Protezione Uccelli, LIPU) et de l'Union des athées et des agnostiques rationalistes.
+Diplômé à Parme en biologie en 1956, il devient professeur d'écologie comportementale à l'université « Ca' Foscari » de Venise, ainsi que président honoris causa de la ligue italienne de protection des oiseaux (Lega Italiana Protezione Uccelli, LIPU) et de l'Union des athées et des agnostiques rationalistes.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses travaux sont axés principalement sur l'évolution du comportement social et sexuel des animaux ; il démontre l'importance de l'apprentissage précoce que détermine les préférences sexuelles[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses travaux sont axés principalement sur l'évolution du comportement social et sexuel des animaux ; il démontre l'importance de l'apprentissage précoce que détermine les préférences sexuelles.
 Il est l'un des éthologues européens les plus connus du XXe siècle. Il suit l'animal dans la succession de ses comportements en relation avec une situation problématique devant laquelle l'animal est placé.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Mort</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors d'une interview, il a déclaré qu'après sa mort, il préfèrerait se réincarner en oiseau, « ...pour sa merveilleuse capacité de voler... »[5],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors d'une interview, il a déclaré qu'après sa mort, il préfèrerait se réincarner en oiseau, « ...pour sa merveilleuse capacité de voler... »,.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1974 - L'animale culturale, Biblioteca Universale Rizzoli  (ISBN 88-17-12048-0)
@@ -633,7 +653,43 @@
 2010 - Il cane secondo me, Cairo Publishing  (ISBN 978-88-6052-316-7)
 2010 - Un innocente vampiro, Cairo Publishing  (ISBN 978-88-6052-277-1)
 2012 - Le corna del Cesare, Cairo Publishing  (ISBN 978-88-6052-421-8)
-En collaboration avec Alessandro Minelli
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Danilo_Mainardi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danilo_Mainardi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En collaboration avec Alessandro Minelli</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1992 - Il linguaggio degli animali, Giunti Editore  (ISBN 978-88-09-45250-3)
 1992 - Animali cacciatori, Giunti Editore  (ISBN 978-88-09-45247-3)
 1992 - Animali in società, Giunti Editore  (ISBN 978-88-09-45249-7)
